--- a/ddl/v3.0/Excel Schema-v3.0.xlsx
+++ b/ddl/v3.0/Excel Schema-v3.0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Documents\DB projects\ecommerce-flask-python\ddl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Documents\Flask project\ecommerce-flask-python-master\ecommerce-flask-python\ddl\v3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980C7C2-8F90-42C5-AA97-D41AE1EBE4CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E785B169-75D3-4D49-9DDE-98C8DECAA23D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{B1B5DF04-CDE4-4E41-BAF5-9E60E0467575}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{B1B5DF04-CDE4-4E41-BAF5-9E60E0467575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
   <si>
     <t>Type</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>role tables greyed out and added this flag.</t>
+  </si>
+  <si>
+    <t>isAvailable</t>
+  </si>
+  <si>
+    <t>when admin removes any products this is set to true</t>
   </si>
 </sst>
 </file>
@@ -923,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A24157A-A311-4470-92FC-773602082152}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,51 +1468,45 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1514,267 +1514,269 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
       <c r="E69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>93</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1782,13 +1784,14 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1797,94 +1800,96 @@
         <v>6</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>98</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>43</v>
       </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
-        <v>101</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -1896,138 +1901,147 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>65</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>5</v>
       </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>55</v>
       </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2086,6 +2100,9 @@
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
